--- a/Base de Datos - Junio 11.xlsx
+++ b/Base de Datos - Junio 11.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ma.mercedesgarciafagalde/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ma.mercedesgarciafagalde/Documents/GitHub/Tesis_Lucini_GarciaFagalde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3424FED-9E74-D94C-BFD0-41800546C837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8445D7-4653-834F-9F6B-020C54A110E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="5" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$BR$296</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -617,7 +618,7 @@
   <dimension ref="A1:BR296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO212" sqref="AO212"/>
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -877,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G2" s="4">
         <v>285000</v>
@@ -1047,7 +1048,7 @@
         <v>6</v>
       </c>
       <c r="F3" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G3" s="4">
         <v>993000</v>
@@ -1221,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G4" s="4">
         <v>143156099</v>
@@ -1411,7 +1412,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G5" s="4">
         <v>212719964</v>
@@ -1601,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G6" s="4">
         <v>1147000</v>
@@ -1791,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G7" s="4">
         <v>11036090</v>
@@ -1983,7 +1984,7 @@
         <v>-2</v>
       </c>
       <c r="F8" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G8" s="4">
         <v>564698000</v>
@@ -2175,7 +2176,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G9" s="4">
         <v>12659000</v>
@@ -2367,7 +2368,7 @@
         <v>-5</v>
       </c>
       <c r="F10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4">
@@ -2557,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G11" s="4">
         <v>4323144</v>
@@ -2749,7 +2750,7 @@
         <v>2</v>
       </c>
       <c r="F12" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G12" s="4">
         <v>2727000</v>
@@ -2939,7 +2940,7 @@
         <v>-5</v>
       </c>
       <c r="F13" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4">
@@ -3317,7 +3318,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G15" s="4">
         <v>584541645</v>
@@ -3507,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="F16" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G16" s="4">
         <v>4624000</v>
@@ -3697,7 +3698,7 @@
         <v>-5</v>
       </c>
       <c r="F17" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G17" s="4">
         <v>2690019037</v>
@@ -3887,7 +3888,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G18" s="4">
         <v>1252298436</v>
@@ -4077,7 +4078,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G19" s="4">
         <v>1097833712</v>
@@ -4269,7 +4270,7 @@
         <v>-1</v>
       </c>
       <c r="F20" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G20" s="4">
         <v>613512574</v>
@@ -4653,7 +4654,7 @@
         <v>-2</v>
       </c>
       <c r="F22" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G22" s="4">
         <v>51357000</v>
@@ -4853,7 +4854,7 @@
         <v>9</v>
       </c>
       <c r="F23" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G23" s="4">
         <v>12885000</v>
@@ -5053,7 +5054,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G24" s="4">
         <v>12838000</v>
@@ -5253,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="F25" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G25" s="4"/>
       <c r="H25" s="4">
@@ -5451,7 +5452,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="4">
@@ -5649,7 +5650,7 @@
         <v>-3</v>
       </c>
       <c r="F27" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G27" s="4">
         <v>1503000</v>
@@ -5849,7 +5850,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G28" s="4">
         <v>19840000</v>
@@ -6049,7 +6050,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G29" s="4">
         <v>2270000</v>
@@ -6249,7 +6250,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G30" s="4">
         <v>8280000</v>
@@ -6449,7 +6450,7 @@
         <v>-3</v>
       </c>
       <c r="F31" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G31" s="4">
         <v>4342000</v>
@@ -6649,7 +6650,7 @@
         <v>-1</v>
       </c>
       <c r="F32" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G32" s="4">
         <v>3674000</v>
@@ -7057,7 +7058,7 @@
         <v>-11</v>
       </c>
       <c r="F34" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G34" s="4">
         <v>0</v>
@@ -7261,7 +7262,7 @@
         <v>9</v>
       </c>
       <c r="F35" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G35" s="4">
         <v>0</v>
@@ -7465,7 +7466,7 @@
         <v>9</v>
       </c>
       <c r="F36" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G36" s="4">
         <v>0</v>
@@ -7873,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="F38" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G38" s="4">
         <v>0</v>
@@ -8077,7 +8078,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G39" s="4">
         <v>0</v>
@@ -8281,7 +8282,7 @@
         <v>4</v>
       </c>
       <c r="F40" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G40" s="4"/>
       <c r="H40" s="4">
@@ -8481,7 +8482,7 @@
         <v>-6</v>
       </c>
       <c r="F41" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G41" s="4"/>
       <c r="H41" s="4">
@@ -8681,7 +8682,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4">
@@ -8881,7 +8882,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G43" s="4"/>
       <c r="H43" s="4">
@@ -9081,7 +9082,7 @@
         <v>-1</v>
       </c>
       <c r="F44" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="4">
@@ -9281,7 +9282,7 @@
         <v>2</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G45" s="4"/>
       <c r="H45" s="4">
@@ -9683,7 +9684,7 @@
         <v>3</v>
       </c>
       <c r="F47" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G47" s="4"/>
       <c r="H47" s="4">
@@ -9881,7 +9882,7 @@
         <v>-2</v>
       </c>
       <c r="F48" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4">
@@ -10075,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4">
@@ -10271,7 +10272,7 @@
         <v>-3</v>
       </c>
       <c r="F50" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4">
@@ -10465,7 +10466,7 @@
         <v>-2</v>
       </c>
       <c r="F51" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G51" s="4"/>
       <c r="H51" s="4">
@@ -10845,7 +10846,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -10945,7 +10946,7 @@
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -11043,7 +11044,7 @@
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -11141,7 +11142,7 @@
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -11239,7 +11240,7 @@
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -11335,7 +11336,7 @@
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
@@ -11431,7 +11432,7 @@
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
@@ -11527,7 +11528,7 @@
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -11625,7 +11626,7 @@
         <v>5</v>
       </c>
       <c r="F61" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4">
@@ -11793,7 +11794,7 @@
         <v>5</v>
       </c>
       <c r="F62" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4">
@@ -11965,7 +11966,7 @@
         <v>8</v>
       </c>
       <c r="F63" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G63" s="4">
         <v>7350000</v>
@@ -12157,7 +12158,7 @@
         <v>6</v>
       </c>
       <c r="F64" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G64" s="4">
         <v>543000</v>
@@ -12349,7 +12350,7 @@
         <v>3</v>
       </c>
       <c r="F65" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G65" s="4">
         <v>561000</v>
@@ -12541,7 +12542,7 @@
         <v>7</v>
       </c>
       <c r="F66" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G66" s="4"/>
       <c r="H66" s="4">
@@ -12733,7 +12734,7 @@
         <v>5</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G67" s="4"/>
       <c r="H67" s="4">
@@ -12925,7 +12926,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4">
@@ -13117,7 +13118,7 @@
         <v>2</v>
       </c>
       <c r="F69" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G69" s="4">
         <v>965000</v>
@@ -13311,7 +13312,7 @@
         <v>0</v>
       </c>
       <c r="F70" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G70" s="4">
         <v>7389000</v>
@@ -13701,7 +13702,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G72" s="4">
         <v>26578000</v>
@@ -13897,7 +13898,7 @@
         <v>-4</v>
       </c>
       <c r="F73" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G73" s="4">
         <v>15748000</v>
@@ -14093,7 +14094,7 @@
         <v>-4</v>
       </c>
       <c r="F74" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G74" s="4">
         <v>13238000</v>
@@ -14287,7 +14288,7 @@
         <v>0</v>
       </c>
       <c r="F75" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G75" s="4">
         <v>28247000</v>
@@ -14483,7 +14484,7 @@
         <v>-2</v>
       </c>
       <c r="F76" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G76" s="4">
         <v>4054000</v>
@@ -14885,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="F78" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G78" s="4">
         <v>63686000</v>
@@ -15083,7 +15084,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G79" s="4">
         <v>11074000</v>
@@ -15471,7 +15472,7 @@
         <v>5</v>
       </c>
       <c r="F81" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G81" s="4">
         <v>25594000</v>
@@ -15671,7 +15672,7 @@
         <v>5</v>
       </c>
       <c r="F82" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G82" s="4">
         <v>15866000</v>
@@ -15871,7 +15872,7 @@
         <v>2</v>
       </c>
       <c r="F83" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G83" s="4">
         <v>8447000</v>
@@ -16071,7 +16072,7 @@
         <v>4</v>
       </c>
       <c r="F84" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G84" s="4">
         <v>5217000</v>
@@ -16271,7 +16272,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G85" s="4"/>
       <c r="H85" s="4">
@@ -16471,7 +16472,7 @@
         <v>5</v>
       </c>
       <c r="F86" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G86" s="4">
         <v>0</v>
@@ -16673,7 +16674,7 @@
         <v>4</v>
       </c>
       <c r="F87" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G87" s="4">
         <v>0</v>
@@ -16875,7 +16876,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G88" s="4"/>
       <c r="H88" s="4">
@@ -17075,7 +17076,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G89" s="4"/>
       <c r="H89" s="4">
@@ -17275,7 +17276,7 @@
         <v>0</v>
       </c>
       <c r="F90" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G90" s="4">
         <v>0</v>
@@ -17477,7 +17478,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G91" s="4">
         <v>0</v>
@@ -17687,7 +17688,7 @@
         <v>2</v>
       </c>
       <c r="F92" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G92" s="4">
         <v>0</v>
@@ -17897,7 +17898,7 @@
         <v>2</v>
       </c>
       <c r="F93" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G93" s="4">
         <v>0</v>
@@ -18105,7 +18106,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G94" s="4">
         <v>0</v>
@@ -18313,7 +18314,7 @@
         <v>4</v>
       </c>
       <c r="F95" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4">
@@ -18519,7 +18520,7 @@
         <v>4</v>
       </c>
       <c r="F96" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4">
@@ -18725,7 +18726,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G97" s="4"/>
       <c r="H97" s="4">
@@ -18931,7 +18932,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G98" s="4"/>
       <c r="H98" s="4">
@@ -19137,7 +19138,7 @@
         <v>6</v>
       </c>
       <c r="F99" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4">
@@ -19333,7 +19334,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4">
@@ -19529,7 +19530,7 @@
         <v>4</v>
       </c>
       <c r="F101" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4">
@@ -19729,7 +19730,7 @@
         <v>5</v>
       </c>
       <c r="F102" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G102" s="4"/>
       <c r="H102" s="4">
@@ -19929,7 +19930,7 @@
         <v>5</v>
       </c>
       <c r="F103" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G103" s="4"/>
       <c r="H103" s="4">
@@ -20129,7 +20130,7 @@
         <v>7</v>
       </c>
       <c r="F104" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G104" s="4"/>
       <c r="H104" s="4">
@@ -20329,7 +20330,7 @@
         <v>5</v>
       </c>
       <c r="F105" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4">
@@ -20529,7 +20530,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G106" s="4"/>
       <c r="H106" s="4">
@@ -20729,7 +20730,7 @@
         <v>4</v>
       </c>
       <c r="F107" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G107" s="4"/>
       <c r="H107" s="4">
@@ -20929,7 +20930,7 @@
         <v>4</v>
       </c>
       <c r="F108" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4">
@@ -21125,7 +21126,7 @@
         <v>4</v>
       </c>
       <c r="F109" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4">
@@ -21321,7 +21322,7 @@
         <v>2</v>
       </c>
       <c r="F110" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4">
@@ -21515,7 +21516,7 @@
         <v>-9</v>
       </c>
       <c r="F111" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G111" s="4"/>
       <c r="H111" s="4">
@@ -21701,7 +21702,7 @@
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
@@ -21807,7 +21808,7 @@
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -21907,7 +21908,7 @@
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
@@ -22007,7 +22008,7 @@
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
@@ -22107,7 +22108,7 @@
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
@@ -22207,7 +22208,7 @@
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
@@ -22307,7 +22308,7 @@
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
@@ -22407,7 +22408,7 @@
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
@@ -22509,7 +22510,7 @@
         <v>7</v>
       </c>
       <c r="F120" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G120" s="4"/>
       <c r="H120" s="4">
@@ -22673,7 +22674,7 @@
         <v>6</v>
       </c>
       <c r="F121" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G121" s="4"/>
       <c r="H121" s="4">
@@ -22843,7 +22844,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4">
@@ -23031,7 +23032,7 @@
         <v>14</v>
       </c>
       <c r="F123" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4">
@@ -23219,7 +23220,7 @@
         <v>11</v>
       </c>
       <c r="F124" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G124" s="4"/>
       <c r="H124" s="4">
@@ -23407,7 +23408,7 @@
         <v>11</v>
       </c>
       <c r="F125" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G125" s="4">
         <v>5515000</v>
@@ -23601,7 +23602,7 @@
         <v>7</v>
       </c>
       <c r="F126" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G126" s="4">
         <v>11463000</v>
@@ -23793,7 +23794,7 @@
         <v>2</v>
       </c>
       <c r="F127" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G127" s="4">
         <v>8022000</v>
@@ -23989,7 +23990,7 @@
         <v>6</v>
       </c>
       <c r="F128" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4">
@@ -24181,7 +24182,7 @@
         <v>4</v>
       </c>
       <c r="F129" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4">
@@ -24373,7 +24374,7 @@
         <v>4</v>
       </c>
       <c r="F130" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G130" s="4"/>
       <c r="H130" s="4">
@@ -24565,7 +24566,7 @@
         <v>6</v>
       </c>
       <c r="F131" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G131" s="4"/>
       <c r="H131" s="4">
@@ -24943,7 +24944,7 @@
         <v>0</v>
       </c>
       <c r="F133" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G133" s="4">
         <v>74500000</v>
@@ -25323,7 +25324,7 @@
         <v>4</v>
       </c>
       <c r="F135" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G135" s="4">
         <v>279364290</v>
@@ -25513,7 +25514,7 @@
         <v>3</v>
       </c>
       <c r="F136" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G136" s="4">
         <v>237448000</v>
@@ -25703,7 +25704,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G137" s="4">
         <v>52345229</v>
@@ -25895,7 +25896,7 @@
         <v>6</v>
       </c>
       <c r="F138" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G138" s="4">
         <v>84415279</v>
@@ -26087,7 +26088,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G139" s="4">
         <v>221755800</v>
@@ -26279,7 +26280,7 @@
         <v>4</v>
       </c>
       <c r="F140" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G140" s="4">
         <v>112480000</v>
@@ -26473,7 +26474,7 @@
         <v>4</v>
       </c>
       <c r="F141" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G141" s="4">
         <v>62600000</v>
@@ -26667,7 +26668,7 @@
         <v>2</v>
       </c>
       <c r="F142" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G142" s="4"/>
       <c r="H142" s="4">
@@ -26859,7 +26860,7 @@
         <v>2</v>
       </c>
       <c r="F143" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G143" s="4">
         <v>17400000</v>
@@ -27053,7 +27054,7 @@
         <v>4</v>
       </c>
       <c r="F144" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4">
@@ -27245,7 +27246,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G145" s="4"/>
       <c r="H145" s="4">
@@ -27437,7 +27438,7 @@
         <v>2</v>
       </c>
       <c r="F146" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G146" s="4"/>
       <c r="H146" s="4">
@@ -27629,7 +27630,7 @@
         <v>4</v>
       </c>
       <c r="F147" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G147" s="4"/>
       <c r="H147" s="4">
@@ -27821,7 +27822,7 @@
         <v>3</v>
       </c>
       <c r="F148" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G148" s="4">
         <v>0</v>
@@ -28015,7 +28016,7 @@
         <v>-5</v>
       </c>
       <c r="F149" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G149" s="4">
         <v>0</v>
@@ -28407,7 +28408,7 @@
         <v>4</v>
       </c>
       <c r="F151" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G151" s="4">
         <v>0</v>
@@ -28605,7 +28606,7 @@
         <v>4</v>
       </c>
       <c r="F152" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G152" s="4">
         <v>0</v>
@@ -28801,7 +28802,7 @@
         <v>3</v>
       </c>
       <c r="F153" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G153" s="4">
         <v>0</v>
@@ -28999,7 +29000,7 @@
         <v>8</v>
       </c>
       <c r="F154" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G154" s="4">
         <v>0</v>
@@ -29197,7 +29198,7 @@
         <v>5</v>
       </c>
       <c r="F155" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G155" s="4">
         <v>0</v>
@@ -29395,7 +29396,7 @@
         <v>4</v>
       </c>
       <c r="F156" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G156" s="4">
         <v>0</v>
@@ -29593,7 +29594,7 @@
         <v>2</v>
       </c>
       <c r="F157" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G157" s="4">
         <v>0</v>
@@ -29997,7 +29998,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G159" s="4">
         <v>0</v>
@@ -30199,7 +30200,7 @@
         <v>4</v>
       </c>
       <c r="F160" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G160" s="4">
         <v>0</v>
@@ -30401,7 +30402,7 @@
         <v>8</v>
       </c>
       <c r="F161" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G161" s="4">
         <v>0</v>
@@ -30603,7 +30604,7 @@
         <v>6</v>
       </c>
       <c r="F162" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G162" s="4">
         <v>0</v>
@@ -30805,7 +30806,7 @@
         <v>5</v>
       </c>
       <c r="F163" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G163" s="4">
         <v>0</v>
@@ -31007,7 +31008,7 @@
         <v>4</v>
       </c>
       <c r="F164" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G164" s="4">
         <v>0</v>
@@ -31209,7 +31210,7 @@
         <v>0</v>
       </c>
       <c r="F165" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G165" s="4">
         <v>6483297</v>
@@ -31411,7 +31412,7 @@
         <v>-1</v>
       </c>
       <c r="F166" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G166" s="4">
         <v>3662076</v>
@@ -31613,7 +31614,7 @@
         <v>2</v>
       </c>
       <c r="F167" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G167" s="4">
         <v>954622</v>
@@ -31815,7 +31816,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G168" s="4">
         <v>0</v>
@@ -32017,7 +32018,7 @@
         <v>0</v>
       </c>
       <c r="F169" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G169" s="4">
         <v>0</v>
@@ -32219,7 +32220,7 @@
         <v>-8</v>
       </c>
       <c r="F170" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G170" s="4">
         <v>0</v>
@@ -32413,7 +32414,7 @@
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -32519,7 +32520,7 @@
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G172" s="4"/>
       <c r="H172" s="4"/>
@@ -32621,7 +32622,7 @@
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
@@ -32723,7 +32724,7 @@
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
@@ -32825,7 +32826,7 @@
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G175" s="4"/>
       <c r="H175" s="4"/>
@@ -32927,7 +32928,7 @@
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G176" s="4"/>
       <c r="H176" s="4"/>
@@ -33029,7 +33030,7 @@
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G177" s="4"/>
       <c r="H177" s="4"/>
@@ -33131,7 +33132,7 @@
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G178" s="4"/>
       <c r="H178" s="4"/>
@@ -33233,7 +33234,7 @@
         <v>25</v>
       </c>
       <c r="F179" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G179" s="4"/>
       <c r="H179" s="4">
@@ -33401,7 +33402,7 @@
         <v>14</v>
       </c>
       <c r="F180" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G180" s="4"/>
       <c r="H180" s="4">
@@ -33573,7 +33574,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G181" s="4"/>
       <c r="H181" s="4">
@@ -33757,7 +33758,7 @@
         <v>5</v>
       </c>
       <c r="F182" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G182" s="4"/>
       <c r="H182" s="4">
@@ -33941,7 +33942,7 @@
         <v>11</v>
       </c>
       <c r="F183" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G183" s="4"/>
       <c r="H183" s="4">
@@ -34125,7 +34126,7 @@
         <v>-5</v>
       </c>
       <c r="F184" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G184" s="4"/>
       <c r="H184" s="4">
@@ -34309,7 +34310,7 @@
         <v>9</v>
       </c>
       <c r="F185" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G185" s="4"/>
       <c r="H185" s="4">
@@ -34495,7 +34496,7 @@
         <v>6</v>
       </c>
       <c r="F186" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G186" s="4"/>
       <c r="H186" s="4">
@@ -34681,7 +34682,7 @@
         <v>-6</v>
       </c>
       <c r="F187" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G187" s="4"/>
       <c r="H187" s="4">
@@ -34867,7 +34868,7 @@
         <v>7</v>
       </c>
       <c r="F188" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G188" s="4"/>
       <c r="H188" s="4">
@@ -35053,7 +35054,7 @@
         <v>4</v>
       </c>
       <c r="F189" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G189" s="4"/>
       <c r="H189" s="4">
@@ -35241,7 +35242,7 @@
         <v>-13</v>
       </c>
       <c r="F190" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G190" s="4"/>
       <c r="H190" s="4">
@@ -35629,7 +35630,7 @@
         <v>-11</v>
       </c>
       <c r="F192" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G192" s="4">
         <v>450000000</v>
@@ -35821,7 +35822,7 @@
         <v>-1</v>
       </c>
       <c r="F193" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G193" s="4"/>
       <c r="H193" s="4">
@@ -36011,7 +36012,7 @@
         <v>6</v>
       </c>
       <c r="F194" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G194" s="4"/>
       <c r="H194" s="4">
@@ -36393,7 +36394,7 @@
         <v>3</v>
       </c>
       <c r="F196" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G196" s="4"/>
       <c r="H196" s="4">
@@ -36581,7 +36582,7 @@
         <v>7</v>
       </c>
       <c r="F197" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G197" s="4"/>
       <c r="H197" s="4">
@@ -36769,7 +36770,7 @@
         <v>2</v>
       </c>
       <c r="F198" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G198" s="4"/>
       <c r="H198" s="4">
@@ -36957,7 +36958,7 @@
         <v>12</v>
       </c>
       <c r="F199" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G199" s="4"/>
       <c r="H199" s="4">
@@ -37147,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="F200" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4">
@@ -37535,7 +37536,7 @@
         <v>-2</v>
       </c>
       <c r="F202" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G202" s="4"/>
       <c r="H202" s="4">
@@ -37729,7 +37730,7 @@
         <v>-2</v>
       </c>
       <c r="F203" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G203" s="4"/>
       <c r="H203" s="4">
@@ -37923,7 +37924,7 @@
         <v>0</v>
       </c>
       <c r="F204" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G204" s="4"/>
       <c r="H204" s="4">
@@ -38115,7 +38116,7 @@
         <v>4</v>
       </c>
       <c r="F205" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G205" s="4"/>
       <c r="H205" s="4">
@@ -38309,7 +38310,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G206" s="4"/>
       <c r="H206" s="4">
@@ -38503,7 +38504,7 @@
         <v>3</v>
       </c>
       <c r="F207" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G207" s="4"/>
       <c r="H207" s="4">
@@ -38697,7 +38698,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G208" s="4"/>
       <c r="H208" s="4">
@@ -38891,7 +38892,7 @@
         <v>5</v>
       </c>
       <c r="F209" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G209" s="4"/>
       <c r="H209" s="4">
@@ -39287,7 +39288,7 @@
         <v>15</v>
       </c>
       <c r="F211" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G211" s="4"/>
       <c r="H211" s="4">
@@ -39485,7 +39486,7 @@
         <v>7</v>
       </c>
       <c r="F212" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G212" s="4"/>
       <c r="H212" s="4">
@@ -39877,7 +39878,7 @@
         <v>6</v>
       </c>
       <c r="F214" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G214" s="4"/>
       <c r="H214" s="4">
@@ -40073,7 +40074,7 @@
         <v>6</v>
       </c>
       <c r="F215" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G215" s="4"/>
       <c r="H215" s="4">
@@ -40269,7 +40270,7 @@
         <v>7</v>
       </c>
       <c r="F216" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G216" s="4"/>
       <c r="H216" s="4">
@@ -40465,7 +40466,7 @@
         <v>7</v>
       </c>
       <c r="F217" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G217" s="4"/>
       <c r="H217" s="4">
@@ -40663,7 +40664,7 @@
         <v>8</v>
       </c>
       <c r="F218" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G218" s="4"/>
       <c r="H218" s="4">
@@ -40861,7 +40862,7 @@
         <v>8</v>
       </c>
       <c r="F219" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G219" s="4"/>
       <c r="H219" s="4">
@@ -41059,7 +41060,7 @@
         <v>5</v>
       </c>
       <c r="F220" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G220" s="4"/>
       <c r="H220" s="4">
@@ -41249,7 +41250,7 @@
         <v>4</v>
       </c>
       <c r="F221" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G221" s="4"/>
       <c r="H221" s="4">
@@ -41437,7 +41438,7 @@
         <v>7</v>
       </c>
       <c r="F222" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G222" s="4"/>
       <c r="H222" s="4">
@@ -41631,7 +41632,7 @@
         <v>6</v>
       </c>
       <c r="F223" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G223" s="4"/>
       <c r="H223" s="4">
@@ -41827,7 +41828,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G224" s="4"/>
       <c r="H224" s="4">
@@ -42023,7 +42024,7 @@
         <v>-2</v>
       </c>
       <c r="F225" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G225" s="4"/>
       <c r="H225" s="4">
@@ -42219,7 +42220,7 @@
         <v>1</v>
       </c>
       <c r="F226" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G226" s="4"/>
       <c r="H226" s="4">
@@ -42415,7 +42416,7 @@
         <v>2</v>
       </c>
       <c r="F227" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G227" s="4"/>
       <c r="H227" s="4">
@@ -42609,7 +42610,7 @@
         <v>2</v>
       </c>
       <c r="F228" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G228" s="4"/>
       <c r="H228" s="4">
@@ -42805,7 +42806,7 @@
         <v>-2</v>
       </c>
       <c r="F229" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G229" s="4"/>
       <c r="H229" s="4">
@@ -42989,7 +42990,7 @@
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G230" s="4"/>
       <c r="H230" s="4"/>
@@ -43091,7 +43092,7 @@
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G231" s="4"/>
       <c r="H231" s="4"/>
@@ -43191,7 +43192,7 @@
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G232" s="4"/>
       <c r="H232" s="4"/>
@@ -43291,7 +43292,7 @@
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G233" s="4"/>
       <c r="H233" s="4"/>
@@ -43391,7 +43392,7 @@
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G234" s="4"/>
       <c r="H234" s="4"/>
@@ -43491,7 +43492,7 @@
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G235" s="4"/>
       <c r="H235" s="4"/>
@@ -43591,7 +43592,7 @@
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G236" s="4"/>
       <c r="H236" s="4"/>
@@ -43691,7 +43692,7 @@
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G237" s="4"/>
       <c r="H237" s="4"/>
@@ -43793,7 +43794,7 @@
         <v>6</v>
       </c>
       <c r="F238" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G238" s="4"/>
       <c r="H238" s="4">
@@ -43957,7 +43958,7 @@
         <v>6</v>
       </c>
       <c r="F239" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G239" s="4"/>
       <c r="H239" s="4">
@@ -44125,7 +44126,7 @@
         <v>7</v>
       </c>
       <c r="F240" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G240" s="4">
         <v>1000</v>
@@ -44311,7 +44312,7 @@
         <v>7</v>
       </c>
       <c r="F241" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G241" s="4">
         <v>26000</v>
@@ -44497,7 +44498,7 @@
         <v>8</v>
       </c>
       <c r="F242" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G242" s="4">
         <v>35000</v>
@@ -44691,7 +44692,7 @@
         <v>7</v>
       </c>
       <c r="F243" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G243" s="4">
         <v>34000</v>
@@ -44885,7 +44886,7 @@
         <v>8</v>
       </c>
       <c r="F244" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G244" s="4"/>
       <c r="H244" s="4">
@@ -45077,7 +45078,7 @@
         <v>11</v>
       </c>
       <c r="F245" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G245" s="4"/>
       <c r="H245" s="4">
@@ -45269,7 +45270,7 @@
         <v>12</v>
       </c>
       <c r="F246" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G246" s="4">
         <v>1753000</v>
@@ -45463,7 +45464,7 @@
         <v>12</v>
       </c>
       <c r="F247" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G247" s="4">
         <v>747000</v>
@@ -45659,7 +45660,7 @@
         <v>12</v>
       </c>
       <c r="F248" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G248" s="4"/>
       <c r="H248" s="4">
@@ -45855,7 +45856,7 @@
         <v>9</v>
       </c>
       <c r="F249" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G249" s="4"/>
       <c r="H249" s="4">
@@ -46049,7 +46050,7 @@
         <v>-1</v>
       </c>
       <c r="F250" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G250" s="4"/>
       <c r="H250" s="4">
@@ -46245,7 +46246,7 @@
         <v>-3</v>
       </c>
       <c r="F251" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G251" s="4"/>
       <c r="H251" s="4">
@@ -46441,7 +46442,7 @@
         <v>3</v>
       </c>
       <c r="F252" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G252" s="4"/>
       <c r="H252" s="4">
@@ -46633,7 +46634,7 @@
         <v>5</v>
       </c>
       <c r="F253" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G253" s="4"/>
       <c r="H253" s="4">
@@ -47017,7 +47018,7 @@
         <v>8</v>
       </c>
       <c r="F255" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G255" s="4"/>
       <c r="H255" s="4">
@@ -47209,7 +47210,7 @@
         <v>6</v>
       </c>
       <c r="F256" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G256" s="4"/>
       <c r="H256" s="4">
@@ -47401,7 +47402,7 @@
         <v>7</v>
       </c>
       <c r="F257" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G257" s="4"/>
       <c r="H257" s="4">
@@ -47593,7 +47594,7 @@
         <v>4</v>
       </c>
       <c r="F258" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G258" s="4"/>
       <c r="H258" s="4">
@@ -47787,7 +47788,7 @@
         <v>3</v>
       </c>
       <c r="F259" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G259" s="4"/>
       <c r="H259" s="4">
@@ -47981,7 +47982,7 @@
         <v>2</v>
       </c>
       <c r="F260" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G260" s="4"/>
       <c r="H260" s="4">
@@ -48175,7 +48176,7 @@
         <v>5</v>
       </c>
       <c r="F261" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G261" s="4">
         <v>5899958</v>
@@ -48371,7 +48372,7 @@
         <v>5</v>
       </c>
       <c r="F262" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G262" s="4">
         <v>24683429</v>
@@ -48567,7 +48568,7 @@
         <v>7</v>
       </c>
       <c r="F263" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G263" s="4">
         <v>37025121</v>
@@ -48763,7 +48764,7 @@
         <v>2</v>
       </c>
       <c r="F264" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G264" s="4">
         <v>23969980</v>
@@ -48959,7 +48960,7 @@
         <v>4</v>
       </c>
       <c r="F265" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G265" s="4">
         <v>7342396</v>
@@ -49155,7 +49156,7 @@
         <v>0</v>
       </c>
       <c r="F266" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G266" s="4">
         <v>813000</v>
@@ -49351,7 +49352,7 @@
         <v>-1</v>
       </c>
       <c r="F267" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G267" s="4">
         <v>1840000</v>
@@ -49547,7 +49548,7 @@
         <v>-2</v>
       </c>
       <c r="F268" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G268" s="4"/>
       <c r="H268" s="4">
@@ -49745,7 +49746,7 @@
         <v>-1</v>
       </c>
       <c r="F269" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G269" s="4"/>
       <c r="H269" s="4">
@@ -49943,7 +49944,7 @@
         <v>0</v>
       </c>
       <c r="F270" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G270" s="4"/>
       <c r="H270" s="4">
@@ -50339,7 +50340,7 @@
         <v>4</v>
       </c>
       <c r="F272" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G272" s="4"/>
       <c r="H272" s="4">
@@ -50537,7 +50538,7 @@
         <v>2</v>
       </c>
       <c r="F273" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G273" s="4">
         <v>0</v>
@@ -50743,7 +50744,7 @@
         <v>5</v>
       </c>
       <c r="F274" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G274" s="4">
         <v>0</v>
@@ -50949,7 +50950,7 @@
         <v>5</v>
       </c>
       <c r="F275" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G275" s="4">
         <v>0</v>
@@ -51155,7 +51156,7 @@
         <v>6</v>
       </c>
       <c r="F276" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G276" s="4">
         <v>0</v>
@@ -51361,7 +51362,7 @@
         <v>0</v>
       </c>
       <c r="F277" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G277" s="4">
         <v>0</v>
@@ -51567,7 +51568,7 @@
         <v>11</v>
       </c>
       <c r="F278" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G278" s="4">
         <v>10000000</v>
@@ -51773,7 +51774,7 @@
         <v>4</v>
       </c>
       <c r="F279" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G279" s="4">
         <v>0</v>
@@ -51979,7 +51980,7 @@
         <v>-1</v>
       </c>
       <c r="F280" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G280" s="4">
         <v>0</v>
@@ -52185,7 +52186,7 @@
         <v>8</v>
       </c>
       <c r="F281" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G281" s="4">
         <v>0</v>
@@ -52391,7 +52392,7 @@
         <v>5</v>
       </c>
       <c r="F282" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G282" s="4">
         <v>0</v>
@@ -52597,7 +52598,7 @@
         <v>3</v>
       </c>
       <c r="F283" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G283" s="4">
         <v>0</v>
@@ -52807,7 +52808,7 @@
         <v>4</v>
       </c>
       <c r="F284" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G284" s="4">
         <v>0</v>
@@ -53017,7 +53018,7 @@
         <v>5</v>
       </c>
       <c r="F285" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G285" s="4">
         <v>0</v>
@@ -53227,7 +53228,7 @@
         <v>3</v>
       </c>
       <c r="F286" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G286" s="4">
         <v>0</v>
@@ -53437,7 +53438,7 @@
         <v>0</v>
       </c>
       <c r="F287" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G287" s="4">
         <v>0</v>
@@ -53647,7 +53648,7 @@
         <v>-1</v>
       </c>
       <c r="F288" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G288" s="4">
         <v>0</v>
@@ -53843,7 +53844,7 @@
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G289" s="4"/>
       <c r="H289" s="4"/>
@@ -53951,7 +53952,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G290" s="4"/>
       <c r="H290" s="4"/>
@@ -54053,7 +54054,7 @@
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G291" s="4"/>
       <c r="H291" s="4"/>
@@ -54155,7 +54156,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G292" s="4"/>
       <c r="H292" s="4"/>
@@ -54257,7 +54258,7 @@
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G293" s="4"/>
       <c r="H293" s="4"/>
@@ -54359,7 +54360,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G294" s="4"/>
       <c r="H294" s="4"/>
@@ -54461,7 +54462,7 @@
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G295" s="4"/>
       <c r="H295" s="4"/>
@@ -54563,7 +54564,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="G296" s="4"/>
       <c r="H296" s="4"/>
@@ -54655,6 +54656,7 @@
       <c r="BR296" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:BR296" xr:uid="{A0C557E2-6208-499D-BEEA-A0503C5E7528}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>